--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/利润总额.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-3.47457</v>
-      </c>
-      <c r="C2" t="n">
-        <v>125.87494</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.79821</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.02756</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.26457</v>
-      </c>
-      <c r="G2" t="n">
-        <v>49.533</v>
-      </c>
-      <c r="H2" t="n">
-        <v>33.09614</v>
-      </c>
-      <c r="I2" t="n">
-        <v>67.83058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>17.14557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2408.33</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.61192</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.45847</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.32667</v>
-      </c>
-      <c r="O2" t="n">
-        <v>8.96149</v>
-      </c>
-      <c r="P2" t="n">
-        <v>35.29528</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>11.249</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.26916</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-1.39177</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.13533</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-6.68174</v>
-      </c>
-      <c r="V2" t="n">
-        <v>142.44018</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-5.20647</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-7.33196</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>378.6873</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>173.31539</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>24.59696</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-2.46854</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-10.44243</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1106.57031</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>31.94156</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4.9325</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>14.94974</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2.22769</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>8.27406</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>-0.02249</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>15.37799</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.8674500000000001</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>70.80069</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>117.43956</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.47427</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.25929</v>
-      </c>
-      <c r="C3" t="n">
-        <v>196.17766</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.66026</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00031</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9877</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.73264</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.17438</v>
-      </c>
-      <c r="I3" t="n">
-        <v>73.89161</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18.97233</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2388.56</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10.38788</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.14398</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.04011</v>
-      </c>
-      <c r="O3" t="n">
-        <v>11.40297</v>
-      </c>
-      <c r="P3" t="n">
-        <v>40.23842</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>9.426500000000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.35704</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44348</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.23577</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.99326</v>
-      </c>
-      <c r="V3" t="n">
-        <v>175.99538</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-1.43353</v>
-      </c>
-      <c r="X3" t="n">
-        <v>29.43472</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>465.05193</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>131.41266</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21.21569</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.30362</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-20.36994</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>927.53725</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2.76267</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.59233</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12.57083</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>5.67078</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>5.61356</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.9195</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14.38993</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>13.73116</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>65.66063</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>153.84467</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.12906</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7.12925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>321.92216</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.55576</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.00167</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.33312</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43.3212</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.38469</v>
-      </c>
-      <c r="I4" t="n">
-        <v>79.08737000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18.14208</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2632.94</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.334759999999999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.15152</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.2717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37.43738</v>
-      </c>
-      <c r="P4" t="n">
-        <v>38.66372</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8.6134</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.8563</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.68475</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.05064</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.39163</v>
-      </c>
-      <c r="V4" t="n">
-        <v>211.33447</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-2.69946</v>
-      </c>
-      <c r="X4" t="n">
-        <v>58.34704</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>426.45675</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>111.77666</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15.78256</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>-2.08222</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>31.02201</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>854.04994</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11.48402</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>-2.29509</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19.12441</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>4.19004</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>7.63565</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.298</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19.15772</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>8.337490000000001</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>66.21993000000001</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>211.20702</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>3.00382</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
